--- a/admin/files/studentsSheet.xlsx
+++ b/admin/files/studentsSheet.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\udayp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30c0a138460f6761/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACA6B6A-AE45-4332-BF30-C0DA04C59FDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6FFAA8D-BF58-4349-BB18-741615934002}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E00B866B-CE3C-4BC2-803E-084C9A3577FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>FirstName</t>
   </si>
@@ -36,74 +36,41 @@
     <t>USN</t>
   </si>
   <si>
+    <t>Roll No</t>
+  </si>
+  <si>
     <t>DOB</t>
   </si>
   <si>
-    <t>Uday</t>
-  </si>
-  <si>
-    <t>Patil</t>
-  </si>
-  <si>
-    <t>2BL17ME131</t>
-  </si>
-  <si>
-    <t>Vishal</t>
-  </si>
-  <si>
-    <t>Agasar</t>
-  </si>
-  <si>
-    <t>2BL17ME132</t>
-  </si>
-  <si>
-    <t>Sarvesh</t>
-  </si>
-  <si>
-    <t>Goddagi</t>
-  </si>
-  <si>
-    <t>2BL17ME133</t>
-  </si>
-  <si>
-    <t>2BL17ME134</t>
-  </si>
-  <si>
-    <t>2BL17ME135</t>
-  </si>
-  <si>
-    <t>2BL17ME136</t>
-  </si>
-  <si>
-    <t>2BL17ME137</t>
-  </si>
-  <si>
-    <t>2BL17ME138</t>
-  </si>
-  <si>
-    <t>2BL17ME139</t>
-  </si>
-  <si>
-    <t>2BL17ME140</t>
-  </si>
-  <si>
-    <t>2BL17ME141</t>
+    <t>John</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Alice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,9 +96,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -166,7 +132,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -178,7 +144,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -225,6 +191,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -260,6 +243,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -411,20 +411,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7340B958-96F4-42D4-A017-1CC1646A735C}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,163 +433,79 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1">
-        <v>2081999</v>
+      <c r="C2">
+        <v>1111</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>11111998</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>1112</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>10101998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1">
-        <v>2081999</v>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>1113</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>12121999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2081999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C5">
+        <v>1114</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2081999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2081999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2081999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2081999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2081999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2081999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2081999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2081999</v>
+      <c r="E5">
+        <v>1042001</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/admin/files/studentsSheet.xlsx
+++ b/admin/files/studentsSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30c0a138460f6761/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6FFAA8D-BF58-4349-BB18-741615934002}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{E6FFAA8D-BF58-4349-BB18-741615934002}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{59E3096A-30CD-47BA-B78A-61EEC8D73F72}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E00B866B-CE3C-4BC2-803E-084C9A3577FE}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>USN</t>
   </si>
   <si>
-    <t>Roll No</t>
-  </si>
-  <si>
     <t>DOB</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>Alice</t>
+  </si>
+  <si>
+    <t>Roll_No</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -431,18 +431,18 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
       </c>
       <c r="C2">
         <v>1111</v>
@@ -456,10 +456,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
       </c>
       <c r="C3">
         <v>1112</v>
@@ -473,10 +473,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
       </c>
       <c r="C4">
         <v>1113</v>
@@ -490,10 +490,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>1114</v>
